--- a/upload/soil-feature.xlsx
+++ b/upload/soil-feature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF25B9E-F5B4-41F9-9AB7-09E5C5F3B516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BC808-D2C0-4811-BDB9-6E491DEE8B75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -377,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AP1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
